--- a/coords.xlsx
+++ b/coords.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D3DE240-ED99-4CD5-B65C-1ED2CE13EB19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40CCE621-C8AE-4576-9037-8897A7D7646F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1092" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1096" uniqueCount="50">
   <si>
     <t>Receiver_ID</t>
   </si>
@@ -174,6 +174,18 @@
   </si>
   <si>
     <t>time_vector_18_27</t>
+  </si>
+  <si>
+    <t>Defect_Free_X</t>
+  </si>
+  <si>
+    <t>Defect_Free_Y</t>
+  </si>
+  <si>
+    <t>Defect_Free_W</t>
+  </si>
+  <si>
+    <t>Defect_Free_H</t>
   </si>
 </sst>
 </file>
@@ -588,11 +600,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A2A3CE4-8B99-42FA-ABC3-A13AED1E4D0B}">
-  <dimension ref="A1:L361"/>
+  <dimension ref="A1:P361"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G32" sqref="G32"/>
+      <selection pane="bottomLeft" activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -603,9 +615,11 @@
     <col min="6" max="10" width="15.7109375" style="11" customWidth="1"/>
     <col min="11" max="11" width="22.28515625" style="11" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="18" style="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>39</v>
       </c>
@@ -642,8 +656,20 @@
       <c r="L1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M1" t="s">
+        <v>46</v>
+      </c>
+      <c r="N1" t="s">
+        <v>47</v>
+      </c>
+      <c r="O1" t="s">
+        <v>48</v>
+      </c>
+      <c r="P1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -680,8 +706,20 @@
       <c r="L2" s="12" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -718,8 +756,20 @@
       <c r="L3" s="12" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -756,8 +806,20 @@
       <c r="L4" s="12" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -794,8 +856,20 @@
       <c r="L5" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -832,8 +906,20 @@
       <c r="L6" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -870,8 +956,20 @@
       <c r="L7" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>9</v>
       </c>
@@ -908,8 +1006,20 @@
       <c r="L8" s="13" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>9</v>
       </c>
@@ -946,8 +1056,20 @@
       <c r="L9" s="13" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>9</v>
       </c>
@@ -984,8 +1106,20 @@
       <c r="L10" s="13" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1022,8 +1156,20 @@
       <c r="L11" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -1060,8 +1206,20 @@
       <c r="L12" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -1098,8 +1256,20 @@
       <c r="L13" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>10</v>
       </c>
@@ -1136,8 +1306,20 @@
       <c r="L14" s="12" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>10</v>
       </c>
@@ -1174,8 +1356,20 @@
       <c r="L15" s="12" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>10</v>
       </c>
@@ -1212,8 +1406,20 @@
       <c r="L16" s="12" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -1250,8 +1456,20 @@
       <c r="L17" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>10</v>
       </c>
@@ -1288,8 +1506,20 @@
       <c r="L18" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -1326,8 +1556,20 @@
       <c r="L19" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>10</v>
       </c>
@@ -1364,8 +1606,20 @@
       <c r="L20" s="14" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>10</v>
       </c>
@@ -1402,8 +1656,20 @@
       <c r="L21" s="14" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>10</v>
       </c>
@@ -1440,8 +1706,20 @@
       <c r="L22" s="14" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>10</v>
       </c>
@@ -1478,8 +1756,20 @@
       <c r="L23" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>10</v>
       </c>
@@ -1516,8 +1806,20 @@
       <c r="L24" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>10</v>
       </c>
@@ -1554,8 +1856,20 @@
       <c r="L25" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>11</v>
       </c>
@@ -1592,8 +1906,20 @@
       <c r="L26" s="12" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>11</v>
       </c>
@@ -1630,8 +1956,20 @@
       <c r="L27" s="12" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>11</v>
       </c>
@@ -1668,8 +2006,20 @@
       <c r="L28" s="12" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>11</v>
       </c>
@@ -1706,8 +2056,20 @@
       <c r="L29" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>11</v>
       </c>
@@ -1744,8 +2106,20 @@
       <c r="L30" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>11</v>
       </c>
@@ -1782,8 +2156,20 @@
       <c r="L31" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>11</v>
       </c>
@@ -1820,8 +2206,20 @@
       <c r="L32" s="14" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>11</v>
       </c>
@@ -1858,8 +2256,20 @@
       <c r="L33" s="14" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>11</v>
       </c>
@@ -1896,8 +2306,20 @@
       <c r="L34" s="14" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>11</v>
       </c>
@@ -1934,8 +2356,20 @@
       <c r="L35" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>11</v>
       </c>
@@ -1972,8 +2406,20 @@
       <c r="L36" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>11</v>
       </c>
@@ -2010,8 +2456,20 @@
       <c r="L37" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>12</v>
       </c>
@@ -2048,8 +2506,20 @@
       <c r="L38" s="12" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>12</v>
       </c>
@@ -2086,8 +2556,20 @@
       <c r="L39" s="12" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>12</v>
       </c>
@@ -2124,8 +2606,20 @@
       <c r="L40" s="12" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>12</v>
       </c>
@@ -2162,8 +2656,20 @@
       <c r="L41" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>12</v>
       </c>
@@ -2200,8 +2706,20 @@
       <c r="L42" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>12</v>
       </c>
@@ -2238,8 +2756,20 @@
       <c r="L43" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>0</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>12</v>
       </c>
@@ -2276,8 +2806,20 @@
       <c r="L44" s="14" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>0</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>12</v>
       </c>
@@ -2314,8 +2856,20 @@
       <c r="L45" s="14" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>0</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>12</v>
       </c>
@@ -2352,8 +2906,20 @@
       <c r="L46" s="14" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>0</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>12</v>
       </c>
@@ -2390,8 +2956,20 @@
       <c r="L47" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>0</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>12</v>
       </c>
@@ -2428,8 +3006,20 @@
       <c r="L48" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>0</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>12</v>
       </c>
@@ -2466,8 +3056,20 @@
       <c r="L49" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>0</v>
+      </c>
+      <c r="O49">
+        <v>0</v>
+      </c>
+      <c r="P49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>13</v>
       </c>
@@ -2504,8 +3106,20 @@
       <c r="L50" s="12" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>0</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+      <c r="P50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>13</v>
       </c>
@@ -2542,8 +3156,20 @@
       <c r="L51" s="12" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>0</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+      <c r="P51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>13</v>
       </c>
@@ -2580,8 +3206,20 @@
       <c r="L52" s="12" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>0</v>
+      </c>
+      <c r="O52">
+        <v>0</v>
+      </c>
+      <c r="P52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>13</v>
       </c>
@@ -2618,8 +3256,20 @@
       <c r="L53" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>0</v>
+      </c>
+      <c r="O53">
+        <v>0</v>
+      </c>
+      <c r="P53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>13</v>
       </c>
@@ -2656,8 +3306,20 @@
       <c r="L54" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>0</v>
+      </c>
+      <c r="O54">
+        <v>0</v>
+      </c>
+      <c r="P54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>13</v>
       </c>
@@ -2694,8 +3356,20 @@
       <c r="L55" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>0</v>
+      </c>
+      <c r="O55">
+        <v>0</v>
+      </c>
+      <c r="P55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>13</v>
       </c>
@@ -2732,8 +3406,20 @@
       <c r="L56" s="14" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>0</v>
+      </c>
+      <c r="O56">
+        <v>0</v>
+      </c>
+      <c r="P56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>13</v>
       </c>
@@ -2770,8 +3456,20 @@
       <c r="L57" s="14" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>0</v>
+      </c>
+      <c r="O57">
+        <v>0</v>
+      </c>
+      <c r="P57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>13</v>
       </c>
@@ -2808,8 +3506,20 @@
       <c r="L58" s="14" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>0</v>
+      </c>
+      <c r="O58">
+        <v>0</v>
+      </c>
+      <c r="P58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>13</v>
       </c>
@@ -2846,8 +3556,20 @@
       <c r="L59" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>0</v>
+      </c>
+      <c r="O59">
+        <v>0</v>
+      </c>
+      <c r="P59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>13</v>
       </c>
@@ -2884,8 +3606,20 @@
       <c r="L60" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>0</v>
+      </c>
+      <c r="O60">
+        <v>0</v>
+      </c>
+      <c r="P60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>13</v>
       </c>
@@ -2922,8 +3656,20 @@
       <c r="L61" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>0</v>
+      </c>
+      <c r="O61">
+        <v>0</v>
+      </c>
+      <c r="P61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
         <v>14</v>
       </c>
@@ -2960,8 +3706,20 @@
       <c r="L62" s="15" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>0</v>
+      </c>
+      <c r="O62">
+        <v>0</v>
+      </c>
+      <c r="P62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
         <v>14</v>
       </c>
@@ -2998,8 +3756,20 @@
       <c r="L63" s="15" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>0</v>
+      </c>
+      <c r="O63">
+        <v>0</v>
+      </c>
+      <c r="P63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
         <v>14</v>
       </c>
@@ -3036,8 +3806,20 @@
       <c r="L64" s="15" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>0</v>
+      </c>
+      <c r="O64">
+        <v>0</v>
+      </c>
+      <c r="P64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>14</v>
       </c>
@@ -3074,8 +3856,20 @@
       <c r="L65" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>0</v>
+      </c>
+      <c r="O65">
+        <v>0</v>
+      </c>
+      <c r="P65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>14</v>
       </c>
@@ -3112,8 +3906,20 @@
       <c r="L66" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>0</v>
+      </c>
+      <c r="O66">
+        <v>0</v>
+      </c>
+      <c r="P66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>14</v>
       </c>
@@ -3150,8 +3956,20 @@
       <c r="L67" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>0</v>
+      </c>
+      <c r="O67">
+        <v>0</v>
+      </c>
+      <c r="P67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
         <v>14</v>
       </c>
@@ -3188,8 +4006,20 @@
       <c r="L68" s="16" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>0</v>
+      </c>
+      <c r="O68">
+        <v>0</v>
+      </c>
+      <c r="P68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
         <v>14</v>
       </c>
@@ -3226,8 +4056,20 @@
       <c r="L69" s="16" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>0</v>
+      </c>
+      <c r="O69">
+        <v>0</v>
+      </c>
+      <c r="P69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
         <v>14</v>
       </c>
@@ -3264,8 +4106,20 @@
       <c r="L70" s="16" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>0</v>
+      </c>
+      <c r="O70">
+        <v>0</v>
+      </c>
+      <c r="P70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>14</v>
       </c>
@@ -3302,8 +4156,20 @@
       <c r="L71" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>0</v>
+      </c>
+      <c r="O71">
+        <v>0</v>
+      </c>
+      <c r="P71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>14</v>
       </c>
@@ -3340,8 +4206,20 @@
       <c r="L72" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>0</v>
+      </c>
+      <c r="O72">
+        <v>0</v>
+      </c>
+      <c r="P72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>14</v>
       </c>
@@ -3378,8 +4256,20 @@
       <c r="L73" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>0</v>
+      </c>
+      <c r="O73">
+        <v>0</v>
+      </c>
+      <c r="P73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
         <v>15</v>
       </c>
@@ -3416,8 +4306,20 @@
       <c r="L74" s="15" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>0</v>
+      </c>
+      <c r="O74">
+        <v>0</v>
+      </c>
+      <c r="P74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
         <v>15</v>
       </c>
@@ -3454,8 +4356,20 @@
       <c r="L75" s="15" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>0</v>
+      </c>
+      <c r="O75">
+        <v>0</v>
+      </c>
+      <c r="P75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
         <v>15</v>
       </c>
@@ -3492,8 +4406,20 @@
       <c r="L76" s="15" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>0</v>
+      </c>
+      <c r="O76">
+        <v>0</v>
+      </c>
+      <c r="P76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>15</v>
       </c>
@@ -3530,8 +4456,20 @@
       <c r="L77" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>0</v>
+      </c>
+      <c r="O77">
+        <v>0</v>
+      </c>
+      <c r="P77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>15</v>
       </c>
@@ -3568,8 +4506,20 @@
       <c r="L78" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>0</v>
+      </c>
+      <c r="O78">
+        <v>0</v>
+      </c>
+      <c r="P78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>15</v>
       </c>
@@ -3606,8 +4556,20 @@
       <c r="L79" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>0</v>
+      </c>
+      <c r="O79">
+        <v>0</v>
+      </c>
+      <c r="P79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
         <v>15</v>
       </c>
@@ -3644,8 +4606,20 @@
       <c r="L80" s="16" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>0</v>
+      </c>
+      <c r="O80">
+        <v>0</v>
+      </c>
+      <c r="P80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
         <v>15</v>
       </c>
@@ -3682,8 +4656,20 @@
       <c r="L81" s="16" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>0</v>
+      </c>
+      <c r="O81">
+        <v>0</v>
+      </c>
+      <c r="P81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
         <v>15</v>
       </c>
@@ -3720,8 +4706,20 @@
       <c r="L82" s="16" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
+        <v>0</v>
+      </c>
+      <c r="O82">
+        <v>0</v>
+      </c>
+      <c r="P82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>15</v>
       </c>
@@ -3758,8 +4756,20 @@
       <c r="L83" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M83">
+        <v>0</v>
+      </c>
+      <c r="N83">
+        <v>0</v>
+      </c>
+      <c r="O83">
+        <v>0</v>
+      </c>
+      <c r="P83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>15</v>
       </c>
@@ -3796,8 +4806,20 @@
       <c r="L84" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M84">
+        <v>0</v>
+      </c>
+      <c r="N84">
+        <v>0</v>
+      </c>
+      <c r="O84">
+        <v>0</v>
+      </c>
+      <c r="P84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>15</v>
       </c>
@@ -3834,8 +4856,20 @@
       <c r="L85" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M85">
+        <v>0</v>
+      </c>
+      <c r="N85">
+        <v>0</v>
+      </c>
+      <c r="O85">
+        <v>0</v>
+      </c>
+      <c r="P85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
         <v>16</v>
       </c>
@@ -3872,8 +4906,20 @@
       <c r="L86" s="15" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M86">
+        <v>0</v>
+      </c>
+      <c r="N86">
+        <v>0</v>
+      </c>
+      <c r="O86">
+        <v>0</v>
+      </c>
+      <c r="P86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
         <v>16</v>
       </c>
@@ -3910,8 +4956,20 @@
       <c r="L87" s="15" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M87">
+        <v>0</v>
+      </c>
+      <c r="N87">
+        <v>0</v>
+      </c>
+      <c r="O87">
+        <v>0</v>
+      </c>
+      <c r="P87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
         <v>16</v>
       </c>
@@ -3948,8 +5006,20 @@
       <c r="L88" s="15" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M88">
+        <v>0</v>
+      </c>
+      <c r="N88">
+        <v>0</v>
+      </c>
+      <c r="O88">
+        <v>0</v>
+      </c>
+      <c r="P88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>16</v>
       </c>
@@ -3986,8 +5056,20 @@
       <c r="L89" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M89">
+        <v>0</v>
+      </c>
+      <c r="N89">
+        <v>0</v>
+      </c>
+      <c r="O89">
+        <v>0</v>
+      </c>
+      <c r="P89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>16</v>
       </c>
@@ -4024,8 +5106,20 @@
       <c r="L90" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M90">
+        <v>0</v>
+      </c>
+      <c r="N90">
+        <v>0</v>
+      </c>
+      <c r="O90">
+        <v>0</v>
+      </c>
+      <c r="P90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>16</v>
       </c>
@@ -4062,8 +5156,20 @@
       <c r="L91" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M91">
+        <v>0</v>
+      </c>
+      <c r="N91">
+        <v>0</v>
+      </c>
+      <c r="O91">
+        <v>0</v>
+      </c>
+      <c r="P91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
         <v>16</v>
       </c>
@@ -4100,8 +5206,20 @@
       <c r="L92" s="16" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M92">
+        <v>0</v>
+      </c>
+      <c r="N92">
+        <v>0</v>
+      </c>
+      <c r="O92">
+        <v>0</v>
+      </c>
+      <c r="P92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>16</v>
       </c>
@@ -4138,8 +5256,20 @@
       <c r="L93" s="16" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M93">
+        <v>0</v>
+      </c>
+      <c r="N93">
+        <v>0</v>
+      </c>
+      <c r="O93">
+        <v>0</v>
+      </c>
+      <c r="P93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
         <v>16</v>
       </c>
@@ -4176,8 +5306,20 @@
       <c r="L94" s="16" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M94">
+        <v>0</v>
+      </c>
+      <c r="N94">
+        <v>0</v>
+      </c>
+      <c r="O94">
+        <v>0</v>
+      </c>
+      <c r="P94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>16</v>
       </c>
@@ -4214,8 +5356,20 @@
       <c r="L95" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M95">
+        <v>0</v>
+      </c>
+      <c r="N95">
+        <v>0</v>
+      </c>
+      <c r="O95">
+        <v>0</v>
+      </c>
+      <c r="P95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>16</v>
       </c>
@@ -4252,8 +5406,20 @@
       <c r="L96" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M96">
+        <v>0</v>
+      </c>
+      <c r="N96">
+        <v>0</v>
+      </c>
+      <c r="O96">
+        <v>0</v>
+      </c>
+      <c r="P96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>16</v>
       </c>
@@ -4290,8 +5456,20 @@
       <c r="L97" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M97">
+        <v>0</v>
+      </c>
+      <c r="N97">
+        <v>0</v>
+      </c>
+      <c r="O97">
+        <v>0</v>
+      </c>
+      <c r="P97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
         <v>17</v>
       </c>
@@ -4328,8 +5506,20 @@
       <c r="L98" s="15" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M98">
+        <v>0</v>
+      </c>
+      <c r="N98">
+        <v>0</v>
+      </c>
+      <c r="O98">
+        <v>0</v>
+      </c>
+      <c r="P98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
         <v>17</v>
       </c>
@@ -4366,8 +5556,20 @@
       <c r="L99" s="15" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M99">
+        <v>0</v>
+      </c>
+      <c r="N99">
+        <v>0</v>
+      </c>
+      <c r="O99">
+        <v>0</v>
+      </c>
+      <c r="P99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
         <v>17</v>
       </c>
@@ -4404,8 +5606,20 @@
       <c r="L100" s="15" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M100">
+        <v>0</v>
+      </c>
+      <c r="N100">
+        <v>0</v>
+      </c>
+      <c r="O100">
+        <v>0</v>
+      </c>
+      <c r="P100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>17</v>
       </c>
@@ -4442,8 +5656,20 @@
       <c r="L101" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M101">
+        <v>0</v>
+      </c>
+      <c r="N101">
+        <v>0</v>
+      </c>
+      <c r="O101">
+        <v>0</v>
+      </c>
+      <c r="P101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>17</v>
       </c>
@@ -4480,8 +5706,20 @@
       <c r="L102" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M102">
+        <v>0</v>
+      </c>
+      <c r="N102">
+        <v>0</v>
+      </c>
+      <c r="O102">
+        <v>0</v>
+      </c>
+      <c r="P102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>17</v>
       </c>
@@ -4518,8 +5756,20 @@
       <c r="L103" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M103">
+        <v>0</v>
+      </c>
+      <c r="N103">
+        <v>0</v>
+      </c>
+      <c r="O103">
+        <v>0</v>
+      </c>
+      <c r="P103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A104" s="5" t="s">
         <v>17</v>
       </c>
@@ -4556,8 +5806,20 @@
       <c r="L104" s="16" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M104">
+        <v>0</v>
+      </c>
+      <c r="N104">
+        <v>0</v>
+      </c>
+      <c r="O104">
+        <v>0</v>
+      </c>
+      <c r="P104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="s">
         <v>17</v>
       </c>
@@ -4594,8 +5856,20 @@
       <c r="L105" s="16" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M105">
+        <v>0</v>
+      </c>
+      <c r="N105">
+        <v>0</v>
+      </c>
+      <c r="O105">
+        <v>0</v>
+      </c>
+      <c r="P105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A106" s="5" t="s">
         <v>17</v>
       </c>
@@ -4632,8 +5906,20 @@
       <c r="L106" s="16" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M106">
+        <v>0</v>
+      </c>
+      <c r="N106">
+        <v>0</v>
+      </c>
+      <c r="O106">
+        <v>0</v>
+      </c>
+      <c r="P106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>17</v>
       </c>
@@ -4670,8 +5956,20 @@
       <c r="L107" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M107">
+        <v>0</v>
+      </c>
+      <c r="N107">
+        <v>0</v>
+      </c>
+      <c r="O107">
+        <v>0</v>
+      </c>
+      <c r="P107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>17</v>
       </c>
@@ -4708,8 +6006,20 @@
       <c r="L108" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M108">
+        <v>0</v>
+      </c>
+      <c r="N108">
+        <v>0</v>
+      </c>
+      <c r="O108">
+        <v>0</v>
+      </c>
+      <c r="P108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>17</v>
       </c>
@@ -4746,8 +6056,20 @@
       <c r="L109" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M109">
+        <v>0</v>
+      </c>
+      <c r="N109">
+        <v>0</v>
+      </c>
+      <c r="O109">
+        <v>0</v>
+      </c>
+      <c r="P109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A110" s="4" t="s">
         <v>18</v>
       </c>
@@ -4784,8 +6106,20 @@
       <c r="L110" s="15" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M110">
+        <v>0</v>
+      </c>
+      <c r="N110">
+        <v>0</v>
+      </c>
+      <c r="O110">
+        <v>0</v>
+      </c>
+      <c r="P110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A111" s="4" t="s">
         <v>18</v>
       </c>
@@ -4822,8 +6156,20 @@
       <c r="L111" s="15" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M111">
+        <v>0</v>
+      </c>
+      <c r="N111">
+        <v>0</v>
+      </c>
+      <c r="O111">
+        <v>0</v>
+      </c>
+      <c r="P111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
         <v>18</v>
       </c>
@@ -4860,8 +6206,20 @@
       <c r="L112" s="15" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M112">
+        <v>0</v>
+      </c>
+      <c r="N112">
+        <v>0</v>
+      </c>
+      <c r="O112">
+        <v>0</v>
+      </c>
+      <c r="P112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>18</v>
       </c>
@@ -4898,8 +6256,20 @@
       <c r="L113" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M113">
+        <v>0</v>
+      </c>
+      <c r="N113">
+        <v>0</v>
+      </c>
+      <c r="O113">
+        <v>0</v>
+      </c>
+      <c r="P113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>18</v>
       </c>
@@ -4936,8 +6306,20 @@
       <c r="L114" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M114">
+        <v>0</v>
+      </c>
+      <c r="N114">
+        <v>0</v>
+      </c>
+      <c r="O114">
+        <v>0</v>
+      </c>
+      <c r="P114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>18</v>
       </c>
@@ -4974,8 +6356,20 @@
       <c r="L115" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M115">
+        <v>0</v>
+      </c>
+      <c r="N115">
+        <v>0</v>
+      </c>
+      <c r="O115">
+        <v>0</v>
+      </c>
+      <c r="P115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A116" s="5" t="s">
         <v>18</v>
       </c>
@@ -5012,8 +6406,20 @@
       <c r="L116" s="16" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M116">
+        <v>0</v>
+      </c>
+      <c r="N116">
+        <v>0</v>
+      </c>
+      <c r="O116">
+        <v>0</v>
+      </c>
+      <c r="P116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A117" s="5" t="s">
         <v>18</v>
       </c>
@@ -5050,8 +6456,20 @@
       <c r="L117" s="16" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M117">
+        <v>0</v>
+      </c>
+      <c r="N117">
+        <v>0</v>
+      </c>
+      <c r="O117">
+        <v>0</v>
+      </c>
+      <c r="P117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A118" s="5" t="s">
         <v>18</v>
       </c>
@@ -5088,8 +6506,20 @@
       <c r="L118" s="16" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M118">
+        <v>0</v>
+      </c>
+      <c r="N118">
+        <v>0</v>
+      </c>
+      <c r="O118">
+        <v>0</v>
+      </c>
+      <c r="P118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>18</v>
       </c>
@@ -5126,8 +6556,20 @@
       <c r="L119" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M119">
+        <v>0</v>
+      </c>
+      <c r="N119">
+        <v>0</v>
+      </c>
+      <c r="O119">
+        <v>0</v>
+      </c>
+      <c r="P119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>18</v>
       </c>
@@ -5164,8 +6606,20 @@
       <c r="L120" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M120">
+        <v>0</v>
+      </c>
+      <c r="N120">
+        <v>0</v>
+      </c>
+      <c r="O120">
+        <v>0</v>
+      </c>
+      <c r="P120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>18</v>
       </c>
@@ -5202,8 +6656,20 @@
       <c r="L121" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M121">
+        <v>0</v>
+      </c>
+      <c r="N121">
+        <v>0</v>
+      </c>
+      <c r="O121">
+        <v>0</v>
+      </c>
+      <c r="P121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A122" s="6" t="s">
         <v>19</v>
       </c>
@@ -5240,8 +6706,20 @@
       <c r="L122" s="17" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M122">
+        <v>0</v>
+      </c>
+      <c r="N122">
+        <v>0</v>
+      </c>
+      <c r="O122">
+        <v>0</v>
+      </c>
+      <c r="P122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A123" s="6" t="s">
         <v>19</v>
       </c>
@@ -5278,8 +6756,20 @@
       <c r="L123" s="17" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M123">
+        <v>0</v>
+      </c>
+      <c r="N123">
+        <v>0</v>
+      </c>
+      <c r="O123">
+        <v>0</v>
+      </c>
+      <c r="P123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A124" s="6" t="s">
         <v>19</v>
       </c>
@@ -5316,8 +6806,20 @@
       <c r="L124" s="17" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M124">
+        <v>0</v>
+      </c>
+      <c r="N124">
+        <v>0</v>
+      </c>
+      <c r="O124">
+        <v>0</v>
+      </c>
+      <c r="P124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>19</v>
       </c>
@@ -5354,8 +6856,20 @@
       <c r="L125" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M125">
+        <v>0</v>
+      </c>
+      <c r="N125">
+        <v>0</v>
+      </c>
+      <c r="O125">
+        <v>0</v>
+      </c>
+      <c r="P125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>19</v>
       </c>
@@ -5392,8 +6906,20 @@
       <c r="L126" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M126">
+        <v>0</v>
+      </c>
+      <c r="N126">
+        <v>0</v>
+      </c>
+      <c r="O126">
+        <v>0</v>
+      </c>
+      <c r="P126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>19</v>
       </c>
@@ -5430,8 +6956,20 @@
       <c r="L127" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M127">
+        <v>0</v>
+      </c>
+      <c r="N127">
+        <v>0</v>
+      </c>
+      <c r="O127">
+        <v>0</v>
+      </c>
+      <c r="P127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A128" s="7" t="s">
         <v>19</v>
       </c>
@@ -5468,8 +7006,20 @@
       <c r="L128" s="18" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M128">
+        <v>0</v>
+      </c>
+      <c r="N128">
+        <v>0</v>
+      </c>
+      <c r="O128">
+        <v>0</v>
+      </c>
+      <c r="P128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A129" s="7" t="s">
         <v>19</v>
       </c>
@@ -5506,8 +7056,20 @@
       <c r="L129" s="18" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M129">
+        <v>0</v>
+      </c>
+      <c r="N129">
+        <v>0</v>
+      </c>
+      <c r="O129">
+        <v>0</v>
+      </c>
+      <c r="P129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A130" s="7" t="s">
         <v>19</v>
       </c>
@@ -5544,8 +7106,20 @@
       <c r="L130" s="18" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M130">
+        <v>0</v>
+      </c>
+      <c r="N130">
+        <v>0</v>
+      </c>
+      <c r="O130">
+        <v>0</v>
+      </c>
+      <c r="P130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>19</v>
       </c>
@@ -5582,8 +7156,20 @@
       <c r="L131" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M131">
+        <v>0</v>
+      </c>
+      <c r="N131">
+        <v>0</v>
+      </c>
+      <c r="O131">
+        <v>0</v>
+      </c>
+      <c r="P131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>19</v>
       </c>
@@ -5620,8 +7206,20 @@
       <c r="L132" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M132">
+        <v>0</v>
+      </c>
+      <c r="N132">
+        <v>0</v>
+      </c>
+      <c r="O132">
+        <v>0</v>
+      </c>
+      <c r="P132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>19</v>
       </c>
@@ -5658,8 +7256,20 @@
       <c r="L133" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M133">
+        <v>0</v>
+      </c>
+      <c r="N133">
+        <v>0</v>
+      </c>
+      <c r="O133">
+        <v>0</v>
+      </c>
+      <c r="P133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A134" s="6" t="s">
         <v>20</v>
       </c>
@@ -5696,8 +7306,20 @@
       <c r="L134" s="17" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M134">
+        <v>0</v>
+      </c>
+      <c r="N134">
+        <v>0</v>
+      </c>
+      <c r="O134">
+        <v>0</v>
+      </c>
+      <c r="P134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A135" s="6" t="s">
         <v>20</v>
       </c>
@@ -5734,8 +7356,20 @@
       <c r="L135" s="17" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M135">
+        <v>0</v>
+      </c>
+      <c r="N135">
+        <v>0</v>
+      </c>
+      <c r="O135">
+        <v>0</v>
+      </c>
+      <c r="P135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A136" s="6" t="s">
         <v>20</v>
       </c>
@@ -5772,8 +7406,20 @@
       <c r="L136" s="17" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M136">
+        <v>0</v>
+      </c>
+      <c r="N136">
+        <v>0</v>
+      </c>
+      <c r="O136">
+        <v>0</v>
+      </c>
+      <c r="P136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>20</v>
       </c>
@@ -5810,8 +7456,20 @@
       <c r="L137" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M137">
+        <v>0</v>
+      </c>
+      <c r="N137">
+        <v>0</v>
+      </c>
+      <c r="O137">
+        <v>0</v>
+      </c>
+      <c r="P137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>20</v>
       </c>
@@ -5848,8 +7506,20 @@
       <c r="L138" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M138">
+        <v>0</v>
+      </c>
+      <c r="N138">
+        <v>0</v>
+      </c>
+      <c r="O138">
+        <v>0</v>
+      </c>
+      <c r="P138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>20</v>
       </c>
@@ -5886,8 +7556,20 @@
       <c r="L139" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M139">
+        <v>0</v>
+      </c>
+      <c r="N139">
+        <v>0</v>
+      </c>
+      <c r="O139">
+        <v>0</v>
+      </c>
+      <c r="P139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A140" s="7" t="s">
         <v>20</v>
       </c>
@@ -5924,8 +7606,20 @@
       <c r="L140" s="18" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M140">
+        <v>0</v>
+      </c>
+      <c r="N140">
+        <v>0</v>
+      </c>
+      <c r="O140">
+        <v>0</v>
+      </c>
+      <c r="P140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A141" s="7" t="s">
         <v>20</v>
       </c>
@@ -5962,8 +7656,20 @@
       <c r="L141" s="18" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M141">
+        <v>0</v>
+      </c>
+      <c r="N141">
+        <v>0</v>
+      </c>
+      <c r="O141">
+        <v>0</v>
+      </c>
+      <c r="P141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A142" s="7" t="s">
         <v>20</v>
       </c>
@@ -6000,8 +7706,20 @@
       <c r="L142" s="18" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M142">
+        <v>0</v>
+      </c>
+      <c r="N142">
+        <v>0</v>
+      </c>
+      <c r="O142">
+        <v>0</v>
+      </c>
+      <c r="P142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>20</v>
       </c>
@@ -6038,8 +7756,20 @@
       <c r="L143" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M143">
+        <v>0</v>
+      </c>
+      <c r="N143">
+        <v>0</v>
+      </c>
+      <c r="O143">
+        <v>0</v>
+      </c>
+      <c r="P143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>20</v>
       </c>
@@ -6076,8 +7806,20 @@
       <c r="L144" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M144">
+        <v>0</v>
+      </c>
+      <c r="N144">
+        <v>0</v>
+      </c>
+      <c r="O144">
+        <v>0</v>
+      </c>
+      <c r="P144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>20</v>
       </c>
@@ -6114,8 +7856,20 @@
       <c r="L145" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M145">
+        <v>0</v>
+      </c>
+      <c r="N145">
+        <v>0</v>
+      </c>
+      <c r="O145">
+        <v>0</v>
+      </c>
+      <c r="P145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A146" s="6" t="s">
         <v>21</v>
       </c>
@@ -6152,8 +7906,20 @@
       <c r="L146" s="17" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M146">
+        <v>0</v>
+      </c>
+      <c r="N146">
+        <v>0</v>
+      </c>
+      <c r="O146">
+        <v>0</v>
+      </c>
+      <c r="P146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A147" s="6" t="s">
         <v>21</v>
       </c>
@@ -6190,8 +7956,20 @@
       <c r="L147" s="17" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M147">
+        <v>0</v>
+      </c>
+      <c r="N147">
+        <v>0</v>
+      </c>
+      <c r="O147">
+        <v>0</v>
+      </c>
+      <c r="P147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A148" s="6" t="s">
         <v>21</v>
       </c>
@@ -6228,8 +8006,20 @@
       <c r="L148" s="17" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M148">
+        <v>0</v>
+      </c>
+      <c r="N148">
+        <v>0</v>
+      </c>
+      <c r="O148">
+        <v>0</v>
+      </c>
+      <c r="P148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>21</v>
       </c>
@@ -6266,8 +8056,20 @@
       <c r="L149" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M149">
+        <v>0</v>
+      </c>
+      <c r="N149">
+        <v>0</v>
+      </c>
+      <c r="O149">
+        <v>0</v>
+      </c>
+      <c r="P149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>21</v>
       </c>
@@ -6304,8 +8106,20 @@
       <c r="L150" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M150">
+        <v>0</v>
+      </c>
+      <c r="N150">
+        <v>0</v>
+      </c>
+      <c r="O150">
+        <v>0</v>
+      </c>
+      <c r="P150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>21</v>
       </c>
@@ -6342,8 +8156,20 @@
       <c r="L151" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M151">
+        <v>0</v>
+      </c>
+      <c r="N151">
+        <v>0</v>
+      </c>
+      <c r="O151">
+        <v>0</v>
+      </c>
+      <c r="P151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A152" s="7" t="s">
         <v>21</v>
       </c>
@@ -6380,8 +8206,20 @@
       <c r="L152" s="18" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M152">
+        <v>0</v>
+      </c>
+      <c r="N152">
+        <v>0</v>
+      </c>
+      <c r="O152">
+        <v>0</v>
+      </c>
+      <c r="P152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A153" s="7" t="s">
         <v>21</v>
       </c>
@@ -6418,8 +8256,20 @@
       <c r="L153" s="18" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M153">
+        <v>0</v>
+      </c>
+      <c r="N153">
+        <v>0</v>
+      </c>
+      <c r="O153">
+        <v>0</v>
+      </c>
+      <c r="P153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A154" s="7" t="s">
         <v>21</v>
       </c>
@@ -6456,8 +8306,20 @@
       <c r="L154" s="18" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M154">
+        <v>0</v>
+      </c>
+      <c r="N154">
+        <v>0</v>
+      </c>
+      <c r="O154">
+        <v>0</v>
+      </c>
+      <c r="P154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>21</v>
       </c>
@@ -6494,8 +8356,20 @@
       <c r="L155" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M155">
+        <v>0</v>
+      </c>
+      <c r="N155">
+        <v>0</v>
+      </c>
+      <c r="O155">
+        <v>0</v>
+      </c>
+      <c r="P155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>21</v>
       </c>
@@ -6532,8 +8406,20 @@
       <c r="L156" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M156">
+        <v>0</v>
+      </c>
+      <c r="N156">
+        <v>0</v>
+      </c>
+      <c r="O156">
+        <v>0</v>
+      </c>
+      <c r="P156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>21</v>
       </c>
@@ -6570,8 +8456,20 @@
       <c r="L157" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M157">
+        <v>0</v>
+      </c>
+      <c r="N157">
+        <v>0</v>
+      </c>
+      <c r="O157">
+        <v>0</v>
+      </c>
+      <c r="P157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A158" s="6" t="s">
         <v>22</v>
       </c>
@@ -6608,8 +8506,20 @@
       <c r="L158" s="17" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M158">
+        <v>0</v>
+      </c>
+      <c r="N158">
+        <v>0</v>
+      </c>
+      <c r="O158">
+        <v>0</v>
+      </c>
+      <c r="P158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A159" s="6" t="s">
         <v>22</v>
       </c>
@@ -6646,8 +8556,20 @@
       <c r="L159" s="17" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M159">
+        <v>0</v>
+      </c>
+      <c r="N159">
+        <v>0</v>
+      </c>
+      <c r="O159">
+        <v>0</v>
+      </c>
+      <c r="P159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A160" s="6" t="s">
         <v>22</v>
       </c>
@@ -6684,8 +8606,20 @@
       <c r="L160" s="17" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M160">
+        <v>0</v>
+      </c>
+      <c r="N160">
+        <v>0</v>
+      </c>
+      <c r="O160">
+        <v>0</v>
+      </c>
+      <c r="P160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>22</v>
       </c>
@@ -6722,8 +8656,20 @@
       <c r="L161" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M161">
+        <v>0</v>
+      </c>
+      <c r="N161">
+        <v>0</v>
+      </c>
+      <c r="O161">
+        <v>0</v>
+      </c>
+      <c r="P161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>22</v>
       </c>
@@ -6760,8 +8706,20 @@
       <c r="L162" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M162">
+        <v>0</v>
+      </c>
+      <c r="N162">
+        <v>0</v>
+      </c>
+      <c r="O162">
+        <v>0</v>
+      </c>
+      <c r="P162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>22</v>
       </c>
@@ -6798,8 +8756,20 @@
       <c r="L163" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M163">
+        <v>0</v>
+      </c>
+      <c r="N163">
+        <v>0</v>
+      </c>
+      <c r="O163">
+        <v>0</v>
+      </c>
+      <c r="P163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A164" s="7" t="s">
         <v>22</v>
       </c>
@@ -6836,8 +8806,20 @@
       <c r="L164" s="18" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M164">
+        <v>0</v>
+      </c>
+      <c r="N164">
+        <v>0</v>
+      </c>
+      <c r="O164">
+        <v>0</v>
+      </c>
+      <c r="P164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A165" s="7" t="s">
         <v>22</v>
       </c>
@@ -6874,8 +8856,20 @@
       <c r="L165" s="18" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M165">
+        <v>0</v>
+      </c>
+      <c r="N165">
+        <v>0</v>
+      </c>
+      <c r="O165">
+        <v>0</v>
+      </c>
+      <c r="P165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A166" s="7" t="s">
         <v>22</v>
       </c>
@@ -6912,8 +8906,20 @@
       <c r="L166" s="18" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M166">
+        <v>0</v>
+      </c>
+      <c r="N166">
+        <v>0</v>
+      </c>
+      <c r="O166">
+        <v>0</v>
+      </c>
+      <c r="P166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>22</v>
       </c>
@@ -6950,8 +8956,20 @@
       <c r="L167" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M167">
+        <v>0</v>
+      </c>
+      <c r="N167">
+        <v>0</v>
+      </c>
+      <c r="O167">
+        <v>0</v>
+      </c>
+      <c r="P167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>22</v>
       </c>
@@ -6988,8 +9006,20 @@
       <c r="L168" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M168">
+        <v>0</v>
+      </c>
+      <c r="N168">
+        <v>0</v>
+      </c>
+      <c r="O168">
+        <v>0</v>
+      </c>
+      <c r="P168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>22</v>
       </c>
@@ -7026,8 +9056,20 @@
       <c r="L169" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M169">
+        <v>0</v>
+      </c>
+      <c r="N169">
+        <v>0</v>
+      </c>
+      <c r="O169">
+        <v>0</v>
+      </c>
+      <c r="P169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A170" s="6" t="s">
         <v>23</v>
       </c>
@@ -7064,8 +9106,20 @@
       <c r="L170" s="17" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M170">
+        <v>0</v>
+      </c>
+      <c r="N170">
+        <v>0</v>
+      </c>
+      <c r="O170">
+        <v>0</v>
+      </c>
+      <c r="P170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A171" s="6" t="s">
         <v>23</v>
       </c>
@@ -7102,8 +9156,20 @@
       <c r="L171" s="17" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M171">
+        <v>0</v>
+      </c>
+      <c r="N171">
+        <v>0</v>
+      </c>
+      <c r="O171">
+        <v>0</v>
+      </c>
+      <c r="P171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A172" s="6" t="s">
         <v>23</v>
       </c>
@@ -7140,8 +9206,20 @@
       <c r="L172" s="17" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M172">
+        <v>0</v>
+      </c>
+      <c r="N172">
+        <v>0</v>
+      </c>
+      <c r="O172">
+        <v>0</v>
+      </c>
+      <c r="P172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>23</v>
       </c>
@@ -7178,8 +9256,20 @@
       <c r="L173" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M173">
+        <v>0</v>
+      </c>
+      <c r="N173">
+        <v>0</v>
+      </c>
+      <c r="O173">
+        <v>0</v>
+      </c>
+      <c r="P173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>23</v>
       </c>
@@ -7216,8 +9306,20 @@
       <c r="L174" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M174">
+        <v>0</v>
+      </c>
+      <c r="N174">
+        <v>0</v>
+      </c>
+      <c r="O174">
+        <v>0</v>
+      </c>
+      <c r="P174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>23</v>
       </c>
@@ -7254,8 +9356,20 @@
       <c r="L175" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M175">
+        <v>0</v>
+      </c>
+      <c r="N175">
+        <v>0</v>
+      </c>
+      <c r="O175">
+        <v>0</v>
+      </c>
+      <c r="P175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A176" s="7" t="s">
         <v>23</v>
       </c>
@@ -7292,8 +9406,20 @@
       <c r="L176" s="18" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M176">
+        <v>0</v>
+      </c>
+      <c r="N176">
+        <v>0</v>
+      </c>
+      <c r="O176">
+        <v>0</v>
+      </c>
+      <c r="P176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A177" s="7" t="s">
         <v>23</v>
       </c>
@@ -7330,8 +9456,20 @@
       <c r="L177" s="18" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M177">
+        <v>0</v>
+      </c>
+      <c r="N177">
+        <v>0</v>
+      </c>
+      <c r="O177">
+        <v>0</v>
+      </c>
+      <c r="P177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A178" s="7" t="s">
         <v>23</v>
       </c>
@@ -7368,8 +9506,20 @@
       <c r="L178" s="18" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M178">
+        <v>0</v>
+      </c>
+      <c r="N178">
+        <v>0</v>
+      </c>
+      <c r="O178">
+        <v>0</v>
+      </c>
+      <c r="P178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>23</v>
       </c>
@@ -7406,8 +9556,20 @@
       <c r="L179" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M179">
+        <v>0</v>
+      </c>
+      <c r="N179">
+        <v>0</v>
+      </c>
+      <c r="O179">
+        <v>0</v>
+      </c>
+      <c r="P179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>23</v>
       </c>
@@ -7444,8 +9606,20 @@
       <c r="L180" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M180">
+        <v>0</v>
+      </c>
+      <c r="N180">
+        <v>0</v>
+      </c>
+      <c r="O180">
+        <v>0</v>
+      </c>
+      <c r="P180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>23</v>
       </c>
@@ -7482,8 +9656,20 @@
       <c r="L181" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M181">
+        <v>0</v>
+      </c>
+      <c r="N181">
+        <v>0</v>
+      </c>
+      <c r="O181">
+        <v>0</v>
+      </c>
+      <c r="P181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
         <v>24</v>
       </c>
@@ -7520,8 +9706,20 @@
       <c r="L182" s="12" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M182">
+        <v>0</v>
+      </c>
+      <c r="N182">
+        <v>0</v>
+      </c>
+      <c r="O182">
+        <v>0</v>
+      </c>
+      <c r="P182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
         <v>24</v>
       </c>
@@ -7558,8 +9756,20 @@
       <c r="L183" s="12" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M183">
+        <v>0</v>
+      </c>
+      <c r="N183">
+        <v>0</v>
+      </c>
+      <c r="O183">
+        <v>0</v>
+      </c>
+      <c r="P183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
         <v>24</v>
       </c>
@@ -7596,8 +9806,20 @@
       <c r="L184" s="12" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M184">
+        <v>0</v>
+      </c>
+      <c r="N184">
+        <v>0</v>
+      </c>
+      <c r="O184">
+        <v>0</v>
+      </c>
+      <c r="P184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>24</v>
       </c>
@@ -7634,8 +9856,20 @@
       <c r="L185" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M185">
+        <v>0</v>
+      </c>
+      <c r="N185">
+        <v>0</v>
+      </c>
+      <c r="O185">
+        <v>0</v>
+      </c>
+      <c r="P185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>24</v>
       </c>
@@ -7672,8 +9906,20 @@
       <c r="L186" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M186">
+        <v>0</v>
+      </c>
+      <c r="N186">
+        <v>0</v>
+      </c>
+      <c r="O186">
+        <v>0</v>
+      </c>
+      <c r="P186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>24</v>
       </c>
@@ -7710,8 +9956,20 @@
       <c r="L187" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M187">
+        <v>0</v>
+      </c>
+      <c r="N187">
+        <v>0</v>
+      </c>
+      <c r="O187">
+        <v>0</v>
+      </c>
+      <c r="P187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A188" s="8" t="s">
         <v>24</v>
       </c>
@@ -7748,8 +10006,20 @@
       <c r="L188" s="13" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M188">
+        <v>0</v>
+      </c>
+      <c r="N188">
+        <v>0</v>
+      </c>
+      <c r="O188">
+        <v>0</v>
+      </c>
+      <c r="P188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A189" s="8" t="s">
         <v>24</v>
       </c>
@@ -7786,8 +10056,20 @@
       <c r="L189" s="13" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M189">
+        <v>0</v>
+      </c>
+      <c r="N189">
+        <v>0</v>
+      </c>
+      <c r="O189">
+        <v>0</v>
+      </c>
+      <c r="P189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A190" s="8" t="s">
         <v>24</v>
       </c>
@@ -7824,8 +10106,20 @@
       <c r="L190" s="13" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M190">
+        <v>0</v>
+      </c>
+      <c r="N190">
+        <v>0</v>
+      </c>
+      <c r="O190">
+        <v>0</v>
+      </c>
+      <c r="P190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>24</v>
       </c>
@@ -7862,8 +10156,20 @@
       <c r="L191" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M191">
+        <v>0</v>
+      </c>
+      <c r="N191">
+        <v>0</v>
+      </c>
+      <c r="O191">
+        <v>0</v>
+      </c>
+      <c r="P191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>24</v>
       </c>
@@ -7900,8 +10206,20 @@
       <c r="L192" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M192">
+        <v>0</v>
+      </c>
+      <c r="N192">
+        <v>0</v>
+      </c>
+      <c r="O192">
+        <v>0</v>
+      </c>
+      <c r="P192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>24</v>
       </c>
@@ -7938,8 +10256,20 @@
       <c r="L193" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M193">
+        <v>0</v>
+      </c>
+      <c r="N193">
+        <v>0</v>
+      </c>
+      <c r="O193">
+        <v>0</v>
+      </c>
+      <c r="P193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
         <v>25</v>
       </c>
@@ -7976,8 +10306,20 @@
       <c r="L194" s="12" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M194">
+        <v>0</v>
+      </c>
+      <c r="N194">
+        <v>0</v>
+      </c>
+      <c r="O194">
+        <v>0</v>
+      </c>
+      <c r="P194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
         <v>25</v>
       </c>
@@ -8014,8 +10356,20 @@
       <c r="L195" s="12" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M195">
+        <v>0</v>
+      </c>
+      <c r="N195">
+        <v>0</v>
+      </c>
+      <c r="O195">
+        <v>0</v>
+      </c>
+      <c r="P195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
         <v>25</v>
       </c>
@@ -8052,8 +10406,20 @@
       <c r="L196" s="12" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M196">
+        <v>0</v>
+      </c>
+      <c r="N196">
+        <v>0</v>
+      </c>
+      <c r="O196">
+        <v>0</v>
+      </c>
+      <c r="P196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>25</v>
       </c>
@@ -8090,8 +10456,20 @@
       <c r="L197" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M197">
+        <v>0</v>
+      </c>
+      <c r="N197">
+        <v>0</v>
+      </c>
+      <c r="O197">
+        <v>0</v>
+      </c>
+      <c r="P197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>25</v>
       </c>
@@ -8128,8 +10506,20 @@
       <c r="L198" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M198">
+        <v>0</v>
+      </c>
+      <c r="N198">
+        <v>0</v>
+      </c>
+      <c r="O198">
+        <v>0</v>
+      </c>
+      <c r="P198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>25</v>
       </c>
@@ -8166,8 +10556,20 @@
       <c r="L199" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M199">
+        <v>0</v>
+      </c>
+      <c r="N199">
+        <v>0</v>
+      </c>
+      <c r="O199">
+        <v>0</v>
+      </c>
+      <c r="P199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A200" s="3" t="s">
         <v>25</v>
       </c>
@@ -8204,8 +10606,20 @@
       <c r="L200" s="14" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M200">
+        <v>0</v>
+      </c>
+      <c r="N200">
+        <v>0</v>
+      </c>
+      <c r="O200">
+        <v>0</v>
+      </c>
+      <c r="P200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A201" s="3" t="s">
         <v>25</v>
       </c>
@@ -8242,8 +10656,20 @@
       <c r="L201" s="14" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M201">
+        <v>0</v>
+      </c>
+      <c r="N201">
+        <v>0</v>
+      </c>
+      <c r="O201">
+        <v>0</v>
+      </c>
+      <c r="P201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A202" s="3" t="s">
         <v>25</v>
       </c>
@@ -8280,8 +10706,20 @@
       <c r="L202" s="14" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M202">
+        <v>0</v>
+      </c>
+      <c r="N202">
+        <v>0</v>
+      </c>
+      <c r="O202">
+        <v>0</v>
+      </c>
+      <c r="P202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>25</v>
       </c>
@@ -8318,8 +10756,20 @@
       <c r="L203" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M203">
+        <v>0</v>
+      </c>
+      <c r="N203">
+        <v>0</v>
+      </c>
+      <c r="O203">
+        <v>0</v>
+      </c>
+      <c r="P203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>25</v>
       </c>
@@ -8356,8 +10806,20 @@
       <c r="L204" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M204">
+        <v>0</v>
+      </c>
+      <c r="N204">
+        <v>0</v>
+      </c>
+      <c r="O204">
+        <v>0</v>
+      </c>
+      <c r="P204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>25</v>
       </c>
@@ -8394,8 +10856,20 @@
       <c r="L205" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M205">
+        <v>0</v>
+      </c>
+      <c r="N205">
+        <v>0</v>
+      </c>
+      <c r="O205">
+        <v>0</v>
+      </c>
+      <c r="P205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
         <v>26</v>
       </c>
@@ -8432,8 +10906,20 @@
       <c r="L206" s="12" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M206">
+        <v>0</v>
+      </c>
+      <c r="N206">
+        <v>0</v>
+      </c>
+      <c r="O206">
+        <v>0</v>
+      </c>
+      <c r="P206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
         <v>26</v>
       </c>
@@ -8470,8 +10956,20 @@
       <c r="L207" s="12" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M207">
+        <v>0</v>
+      </c>
+      <c r="N207">
+        <v>0</v>
+      </c>
+      <c r="O207">
+        <v>0</v>
+      </c>
+      <c r="P207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
         <v>26</v>
       </c>
@@ -8508,8 +11006,20 @@
       <c r="L208" s="12" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M208">
+        <v>0</v>
+      </c>
+      <c r="N208">
+        <v>0</v>
+      </c>
+      <c r="O208">
+        <v>0</v>
+      </c>
+      <c r="P208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>26</v>
       </c>
@@ -8546,8 +11056,20 @@
       <c r="L209" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M209">
+        <v>0</v>
+      </c>
+      <c r="N209">
+        <v>0</v>
+      </c>
+      <c r="O209">
+        <v>0</v>
+      </c>
+      <c r="P209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>26</v>
       </c>
@@ -8584,8 +11106,20 @@
       <c r="L210" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M210">
+        <v>0</v>
+      </c>
+      <c r="N210">
+        <v>0</v>
+      </c>
+      <c r="O210">
+        <v>0</v>
+      </c>
+      <c r="P210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>26</v>
       </c>
@@ -8622,8 +11156,20 @@
       <c r="L211" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M211">
+        <v>0</v>
+      </c>
+      <c r="N211">
+        <v>0</v>
+      </c>
+      <c r="O211">
+        <v>0</v>
+      </c>
+      <c r="P211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A212" s="3" t="s">
         <v>26</v>
       </c>
@@ -8660,8 +11206,20 @@
       <c r="L212" s="14" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M212">
+        <v>0</v>
+      </c>
+      <c r="N212">
+        <v>0</v>
+      </c>
+      <c r="O212">
+        <v>0</v>
+      </c>
+      <c r="P212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A213" s="3" t="s">
         <v>26</v>
       </c>
@@ -8698,8 +11256,20 @@
       <c r="L213" s="14" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M213">
+        <v>0</v>
+      </c>
+      <c r="N213">
+        <v>0</v>
+      </c>
+      <c r="O213">
+        <v>0</v>
+      </c>
+      <c r="P213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A214" s="3" t="s">
         <v>26</v>
       </c>
@@ -8736,8 +11306,20 @@
       <c r="L214" s="14" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M214">
+        <v>0</v>
+      </c>
+      <c r="N214">
+        <v>0</v>
+      </c>
+      <c r="O214">
+        <v>0</v>
+      </c>
+      <c r="P214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>26</v>
       </c>
@@ -8774,8 +11356,20 @@
       <c r="L215" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M215">
+        <v>0</v>
+      </c>
+      <c r="N215">
+        <v>0</v>
+      </c>
+      <c r="O215">
+        <v>0</v>
+      </c>
+      <c r="P215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>26</v>
       </c>
@@ -8812,8 +11406,20 @@
       <c r="L216" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M216">
+        <v>0</v>
+      </c>
+      <c r="N216">
+        <v>0</v>
+      </c>
+      <c r="O216">
+        <v>0</v>
+      </c>
+      <c r="P216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>26</v>
       </c>
@@ -8850,8 +11456,20 @@
       <c r="L217" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M217">
+        <v>0</v>
+      </c>
+      <c r="N217">
+        <v>0</v>
+      </c>
+      <c r="O217">
+        <v>0</v>
+      </c>
+      <c r="P217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
         <v>27</v>
       </c>
@@ -8888,8 +11506,20 @@
       <c r="L218" s="12" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M218">
+        <v>0</v>
+      </c>
+      <c r="N218">
+        <v>0</v>
+      </c>
+      <c r="O218">
+        <v>0</v>
+      </c>
+      <c r="P218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
         <v>27</v>
       </c>
@@ -8926,8 +11556,20 @@
       <c r="L219" s="12" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M219">
+        <v>0</v>
+      </c>
+      <c r="N219">
+        <v>0</v>
+      </c>
+      <c r="O219">
+        <v>0</v>
+      </c>
+      <c r="P219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
         <v>27</v>
       </c>
@@ -8964,8 +11606,20 @@
       <c r="L220" s="12" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M220">
+        <v>0</v>
+      </c>
+      <c r="N220">
+        <v>0</v>
+      </c>
+      <c r="O220">
+        <v>0</v>
+      </c>
+      <c r="P220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>27</v>
       </c>
@@ -9002,8 +11656,20 @@
       <c r="L221" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M221">
+        <v>0</v>
+      </c>
+      <c r="N221">
+        <v>0</v>
+      </c>
+      <c r="O221">
+        <v>0</v>
+      </c>
+      <c r="P221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>27</v>
       </c>
@@ -9040,8 +11706,20 @@
       <c r="L222" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M222">
+        <v>0</v>
+      </c>
+      <c r="N222">
+        <v>0</v>
+      </c>
+      <c r="O222">
+        <v>0</v>
+      </c>
+      <c r="P222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>27</v>
       </c>
@@ -9078,8 +11756,20 @@
       <c r="L223" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M223">
+        <v>0</v>
+      </c>
+      <c r="N223">
+        <v>0</v>
+      </c>
+      <c r="O223">
+        <v>0</v>
+      </c>
+      <c r="P223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A224" s="3" t="s">
         <v>27</v>
       </c>
@@ -9116,8 +11806,20 @@
       <c r="L224" s="14" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M224">
+        <v>0</v>
+      </c>
+      <c r="N224">
+        <v>0</v>
+      </c>
+      <c r="O224">
+        <v>0</v>
+      </c>
+      <c r="P224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A225" s="3" t="s">
         <v>27</v>
       </c>
@@ -9154,8 +11856,20 @@
       <c r="L225" s="14" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M225">
+        <v>0</v>
+      </c>
+      <c r="N225">
+        <v>0</v>
+      </c>
+      <c r="O225">
+        <v>0</v>
+      </c>
+      <c r="P225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A226" s="3" t="s">
         <v>27</v>
       </c>
@@ -9192,8 +11906,20 @@
       <c r="L226" s="14" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M226">
+        <v>0</v>
+      </c>
+      <c r="N226">
+        <v>0</v>
+      </c>
+      <c r="O226">
+        <v>0</v>
+      </c>
+      <c r="P226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>27</v>
       </c>
@@ -9230,8 +11956,20 @@
       <c r="L227" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M227">
+        <v>0</v>
+      </c>
+      <c r="N227">
+        <v>0</v>
+      </c>
+      <c r="O227">
+        <v>0</v>
+      </c>
+      <c r="P227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>27</v>
       </c>
@@ -9268,8 +12006,20 @@
       <c r="L228" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M228">
+        <v>0</v>
+      </c>
+      <c r="N228">
+        <v>0</v>
+      </c>
+      <c r="O228">
+        <v>0</v>
+      </c>
+      <c r="P228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>27</v>
       </c>
@@ -9306,8 +12056,20 @@
       <c r="L229" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M229">
+        <v>0</v>
+      </c>
+      <c r="N229">
+        <v>0</v>
+      </c>
+      <c r="O229">
+        <v>0</v>
+      </c>
+      <c r="P229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
         <v>28</v>
       </c>
@@ -9344,8 +12106,20 @@
       <c r="L230" s="12" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M230">
+        <v>0</v>
+      </c>
+      <c r="N230">
+        <v>0</v>
+      </c>
+      <c r="O230">
+        <v>0</v>
+      </c>
+      <c r="P230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
         <v>28</v>
       </c>
@@ -9382,8 +12156,20 @@
       <c r="L231" s="12" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M231">
+        <v>0</v>
+      </c>
+      <c r="N231">
+        <v>0</v>
+      </c>
+      <c r="O231">
+        <v>0</v>
+      </c>
+      <c r="P231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
         <v>28</v>
       </c>
@@ -9420,8 +12206,20 @@
       <c r="L232" s="12" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M232">
+        <v>0</v>
+      </c>
+      <c r="N232">
+        <v>0</v>
+      </c>
+      <c r="O232">
+        <v>0</v>
+      </c>
+      <c r="P232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>28</v>
       </c>
@@ -9458,8 +12256,20 @@
       <c r="L233" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M233">
+        <v>0</v>
+      </c>
+      <c r="N233">
+        <v>0</v>
+      </c>
+      <c r="O233">
+        <v>0</v>
+      </c>
+      <c r="P233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>28</v>
       </c>
@@ -9496,8 +12306,20 @@
       <c r="L234" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M234">
+        <v>0</v>
+      </c>
+      <c r="N234">
+        <v>0</v>
+      </c>
+      <c r="O234">
+        <v>0</v>
+      </c>
+      <c r="P234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>28</v>
       </c>
@@ -9534,8 +12356,20 @@
       <c r="L235" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M235">
+        <v>0</v>
+      </c>
+      <c r="N235">
+        <v>0</v>
+      </c>
+      <c r="O235">
+        <v>0</v>
+      </c>
+      <c r="P235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A236" s="3" t="s">
         <v>28</v>
       </c>
@@ -9572,8 +12406,20 @@
       <c r="L236" s="14" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M236">
+        <v>0</v>
+      </c>
+      <c r="N236">
+        <v>0</v>
+      </c>
+      <c r="O236">
+        <v>0</v>
+      </c>
+      <c r="P236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A237" s="3" t="s">
         <v>28</v>
       </c>
@@ -9610,8 +12456,20 @@
       <c r="L237" s="14" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M237">
+        <v>0</v>
+      </c>
+      <c r="N237">
+        <v>0</v>
+      </c>
+      <c r="O237">
+        <v>0</v>
+      </c>
+      <c r="P237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A238" s="3" t="s">
         <v>28</v>
       </c>
@@ -9648,8 +12506,20 @@
       <c r="L238" s="14" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M238">
+        <v>0</v>
+      </c>
+      <c r="N238">
+        <v>0</v>
+      </c>
+      <c r="O238">
+        <v>0</v>
+      </c>
+      <c r="P238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>28</v>
       </c>
@@ -9686,8 +12556,20 @@
       <c r="L239" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M239">
+        <v>0</v>
+      </c>
+      <c r="N239">
+        <v>0</v>
+      </c>
+      <c r="O239">
+        <v>0</v>
+      </c>
+      <c r="P239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>28</v>
       </c>
@@ -9724,8 +12606,20 @@
       <c r="L240" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M240">
+        <v>0</v>
+      </c>
+      <c r="N240">
+        <v>0</v>
+      </c>
+      <c r="O240">
+        <v>0</v>
+      </c>
+      <c r="P240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>28</v>
       </c>
@@ -9762,8 +12656,20 @@
       <c r="L241" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M241">
+        <v>0</v>
+      </c>
+      <c r="N241">
+        <v>0</v>
+      </c>
+      <c r="O241">
+        <v>0</v>
+      </c>
+      <c r="P241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A242" s="4" t="s">
         <v>29</v>
       </c>
@@ -9800,8 +12706,20 @@
       <c r="L242" s="15" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="243" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M242">
+        <v>0</v>
+      </c>
+      <c r="N242">
+        <v>0</v>
+      </c>
+      <c r="O242">
+        <v>0</v>
+      </c>
+      <c r="P242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A243" s="4" t="s">
         <v>29</v>
       </c>
@@ -9838,8 +12756,20 @@
       <c r="L243" s="15" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M243">
+        <v>0</v>
+      </c>
+      <c r="N243">
+        <v>0</v>
+      </c>
+      <c r="O243">
+        <v>0</v>
+      </c>
+      <c r="P243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A244" s="4" t="s">
         <v>29</v>
       </c>
@@ -9876,8 +12806,20 @@
       <c r="L244" s="15" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M244">
+        <v>0</v>
+      </c>
+      <c r="N244">
+        <v>0</v>
+      </c>
+      <c r="O244">
+        <v>0</v>
+      </c>
+      <c r="P244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>29</v>
       </c>
@@ -9914,8 +12856,20 @@
       <c r="L245" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M245">
+        <v>0</v>
+      </c>
+      <c r="N245">
+        <v>0</v>
+      </c>
+      <c r="O245">
+        <v>0</v>
+      </c>
+      <c r="P245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>29</v>
       </c>
@@ -9952,8 +12906,20 @@
       <c r="L246" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="247" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M246">
+        <v>0</v>
+      </c>
+      <c r="N246">
+        <v>0</v>
+      </c>
+      <c r="O246">
+        <v>0</v>
+      </c>
+      <c r="P246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>29</v>
       </c>
@@ -9990,8 +12956,20 @@
       <c r="L247" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M247">
+        <v>0</v>
+      </c>
+      <c r="N247">
+        <v>0</v>
+      </c>
+      <c r="O247">
+        <v>0</v>
+      </c>
+      <c r="P247">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A248" s="5" t="s">
         <v>29</v>
       </c>
@@ -10028,8 +13006,20 @@
       <c r="L248" s="16" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M248">
+        <v>0</v>
+      </c>
+      <c r="N248">
+        <v>0</v>
+      </c>
+      <c r="O248">
+        <v>0</v>
+      </c>
+      <c r="P248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A249" s="5" t="s">
         <v>29</v>
       </c>
@@ -10066,8 +13056,20 @@
       <c r="L249" s="16" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M249">
+        <v>0</v>
+      </c>
+      <c r="N249">
+        <v>0</v>
+      </c>
+      <c r="O249">
+        <v>0</v>
+      </c>
+      <c r="P249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A250" s="5" t="s">
         <v>29</v>
       </c>
@@ -10104,8 +13106,20 @@
       <c r="L250" s="16" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="251" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M250">
+        <v>0</v>
+      </c>
+      <c r="N250">
+        <v>0</v>
+      </c>
+      <c r="O250">
+        <v>0</v>
+      </c>
+      <c r="P250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>29</v>
       </c>
@@ -10142,8 +13156,20 @@
       <c r="L251" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="252" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M251">
+        <v>0</v>
+      </c>
+      <c r="N251">
+        <v>0</v>
+      </c>
+      <c r="O251">
+        <v>0</v>
+      </c>
+      <c r="P251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>29</v>
       </c>
@@ -10180,8 +13206,20 @@
       <c r="L252" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="253" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M252">
+        <v>0</v>
+      </c>
+      <c r="N252">
+        <v>0</v>
+      </c>
+      <c r="O252">
+        <v>0</v>
+      </c>
+      <c r="P252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>29</v>
       </c>
@@ -10218,8 +13256,20 @@
       <c r="L253" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="254" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M253">
+        <v>0</v>
+      </c>
+      <c r="N253">
+        <v>0</v>
+      </c>
+      <c r="O253">
+        <v>0</v>
+      </c>
+      <c r="P253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A254" s="4" t="s">
         <v>30</v>
       </c>
@@ -10256,8 +13306,20 @@
       <c r="L254" s="15" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="255" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M254">
+        <v>0</v>
+      </c>
+      <c r="N254">
+        <v>0</v>
+      </c>
+      <c r="O254">
+        <v>0</v>
+      </c>
+      <c r="P254">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A255" s="4" t="s">
         <v>30</v>
       </c>
@@ -10294,8 +13356,20 @@
       <c r="L255" s="15" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="256" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M255">
+        <v>0</v>
+      </c>
+      <c r="N255">
+        <v>0</v>
+      </c>
+      <c r="O255">
+        <v>0</v>
+      </c>
+      <c r="P255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A256" s="4" t="s">
         <v>30</v>
       </c>
@@ -10332,8 +13406,20 @@
       <c r="L256" s="15" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="257" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M256">
+        <v>0</v>
+      </c>
+      <c r="N256">
+        <v>0</v>
+      </c>
+      <c r="O256">
+        <v>0</v>
+      </c>
+      <c r="P256">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>30</v>
       </c>
@@ -10370,8 +13456,20 @@
       <c r="L257" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="258" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M257">
+        <v>0</v>
+      </c>
+      <c r="N257">
+        <v>0</v>
+      </c>
+      <c r="O257">
+        <v>0</v>
+      </c>
+      <c r="P257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>30</v>
       </c>
@@ -10408,8 +13506,20 @@
       <c r="L258" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="259" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M258">
+        <v>0</v>
+      </c>
+      <c r="N258">
+        <v>0</v>
+      </c>
+      <c r="O258">
+        <v>0</v>
+      </c>
+      <c r="P258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>30</v>
       </c>
@@ -10446,8 +13556,20 @@
       <c r="L259" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="260" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M259">
+        <v>0</v>
+      </c>
+      <c r="N259">
+        <v>0</v>
+      </c>
+      <c r="O259">
+        <v>0</v>
+      </c>
+      <c r="P259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A260" s="5" t="s">
         <v>30</v>
       </c>
@@ -10484,8 +13606,20 @@
       <c r="L260" s="16" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="261" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M260">
+        <v>0</v>
+      </c>
+      <c r="N260">
+        <v>0</v>
+      </c>
+      <c r="O260">
+        <v>0</v>
+      </c>
+      <c r="P260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A261" s="5" t="s">
         <v>30</v>
       </c>
@@ -10522,8 +13656,20 @@
       <c r="L261" s="16" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="262" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M261">
+        <v>0</v>
+      </c>
+      <c r="N261">
+        <v>0</v>
+      </c>
+      <c r="O261">
+        <v>0</v>
+      </c>
+      <c r="P261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A262" s="5" t="s">
         <v>30</v>
       </c>
@@ -10560,8 +13706,20 @@
       <c r="L262" s="16" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="263" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M262">
+        <v>0</v>
+      </c>
+      <c r="N262">
+        <v>0</v>
+      </c>
+      <c r="O262">
+        <v>0</v>
+      </c>
+      <c r="P262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>30</v>
       </c>
@@ -10598,8 +13756,20 @@
       <c r="L263" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="264" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M263">
+        <v>0</v>
+      </c>
+      <c r="N263">
+        <v>0</v>
+      </c>
+      <c r="O263">
+        <v>0</v>
+      </c>
+      <c r="P263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>30</v>
       </c>
@@ -10636,8 +13806,20 @@
       <c r="L264" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="265" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M264">
+        <v>0</v>
+      </c>
+      <c r="N264">
+        <v>0</v>
+      </c>
+      <c r="O264">
+        <v>0</v>
+      </c>
+      <c r="P264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>30</v>
       </c>
@@ -10674,8 +13856,20 @@
       <c r="L265" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="266" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M265">
+        <v>0</v>
+      </c>
+      <c r="N265">
+        <v>0</v>
+      </c>
+      <c r="O265">
+        <v>0</v>
+      </c>
+      <c r="P265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A266" s="4" t="s">
         <v>31</v>
       </c>
@@ -10712,8 +13906,20 @@
       <c r="L266" s="15" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="267" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M266">
+        <v>0</v>
+      </c>
+      <c r="N266">
+        <v>0</v>
+      </c>
+      <c r="O266">
+        <v>0</v>
+      </c>
+      <c r="P266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A267" s="4" t="s">
         <v>31</v>
       </c>
@@ -10750,8 +13956,20 @@
       <c r="L267" s="15" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="268" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M267">
+        <v>0</v>
+      </c>
+      <c r="N267">
+        <v>0</v>
+      </c>
+      <c r="O267">
+        <v>0</v>
+      </c>
+      <c r="P267">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A268" s="4" t="s">
         <v>31</v>
       </c>
@@ -10788,8 +14006,20 @@
       <c r="L268" s="15" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="269" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M268">
+        <v>0</v>
+      </c>
+      <c r="N268">
+        <v>0</v>
+      </c>
+      <c r="O268">
+        <v>0</v>
+      </c>
+      <c r="P268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>31</v>
       </c>
@@ -10826,8 +14056,20 @@
       <c r="L269" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="270" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M269">
+        <v>0</v>
+      </c>
+      <c r="N269">
+        <v>0</v>
+      </c>
+      <c r="O269">
+        <v>0</v>
+      </c>
+      <c r="P269">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>31</v>
       </c>
@@ -10864,8 +14106,20 @@
       <c r="L270" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="271" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M270">
+        <v>0</v>
+      </c>
+      <c r="N270">
+        <v>0</v>
+      </c>
+      <c r="O270">
+        <v>0</v>
+      </c>
+      <c r="P270">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>31</v>
       </c>
@@ -10902,8 +14156,20 @@
       <c r="L271" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="272" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M271">
+        <v>0</v>
+      </c>
+      <c r="N271">
+        <v>0</v>
+      </c>
+      <c r="O271">
+        <v>0</v>
+      </c>
+      <c r="P271">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A272" s="5" t="s">
         <v>31</v>
       </c>
@@ -10940,8 +14206,20 @@
       <c r="L272" s="16" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="273" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M272">
+        <v>0</v>
+      </c>
+      <c r="N272">
+        <v>0</v>
+      </c>
+      <c r="O272">
+        <v>0</v>
+      </c>
+      <c r="P272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A273" s="5" t="s">
         <v>31</v>
       </c>
@@ -10978,8 +14256,20 @@
       <c r="L273" s="16" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="274" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M273">
+        <v>0</v>
+      </c>
+      <c r="N273">
+        <v>0</v>
+      </c>
+      <c r="O273">
+        <v>0</v>
+      </c>
+      <c r="P273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A274" s="5" t="s">
         <v>31</v>
       </c>
@@ -11016,8 +14306,20 @@
       <c r="L274" s="16" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="275" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M274">
+        <v>0</v>
+      </c>
+      <c r="N274">
+        <v>0</v>
+      </c>
+      <c r="O274">
+        <v>0</v>
+      </c>
+      <c r="P274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>31</v>
       </c>
@@ -11054,8 +14356,20 @@
       <c r="L275" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="276" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M275">
+        <v>0</v>
+      </c>
+      <c r="N275">
+        <v>0</v>
+      </c>
+      <c r="O275">
+        <v>0</v>
+      </c>
+      <c r="P275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>31</v>
       </c>
@@ -11092,8 +14406,20 @@
       <c r="L276" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="277" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M276">
+        <v>0</v>
+      </c>
+      <c r="N276">
+        <v>0</v>
+      </c>
+      <c r="O276">
+        <v>0</v>
+      </c>
+      <c r="P276">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>31</v>
       </c>
@@ -11130,8 +14456,20 @@
       <c r="L277" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="278" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M277">
+        <v>0</v>
+      </c>
+      <c r="N277">
+        <v>0</v>
+      </c>
+      <c r="O277">
+        <v>0</v>
+      </c>
+      <c r="P277">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A278" s="4" t="s">
         <v>32</v>
       </c>
@@ -11168,8 +14506,20 @@
       <c r="L278" s="15" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="279" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M278">
+        <v>0</v>
+      </c>
+      <c r="N278">
+        <v>0</v>
+      </c>
+      <c r="O278">
+        <v>0</v>
+      </c>
+      <c r="P278">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A279" s="4" t="s">
         <v>32</v>
       </c>
@@ -11206,8 +14556,20 @@
       <c r="L279" s="15" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="280" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M279">
+        <v>0</v>
+      </c>
+      <c r="N279">
+        <v>0</v>
+      </c>
+      <c r="O279">
+        <v>0</v>
+      </c>
+      <c r="P279">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A280" s="4" t="s">
         <v>32</v>
       </c>
@@ -11244,8 +14606,20 @@
       <c r="L280" s="15" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="281" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M280">
+        <v>0</v>
+      </c>
+      <c r="N280">
+        <v>0</v>
+      </c>
+      <c r="O280">
+        <v>0</v>
+      </c>
+      <c r="P280">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>32</v>
       </c>
@@ -11282,8 +14656,20 @@
       <c r="L281" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="282" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M281">
+        <v>0</v>
+      </c>
+      <c r="N281">
+        <v>0</v>
+      </c>
+      <c r="O281">
+        <v>0</v>
+      </c>
+      <c r="P281">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>32</v>
       </c>
@@ -11320,8 +14706,20 @@
       <c r="L282" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="283" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M282">
+        <v>0</v>
+      </c>
+      <c r="N282">
+        <v>0</v>
+      </c>
+      <c r="O282">
+        <v>0</v>
+      </c>
+      <c r="P282">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>32</v>
       </c>
@@ -11358,8 +14756,20 @@
       <c r="L283" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="284" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M283">
+        <v>0</v>
+      </c>
+      <c r="N283">
+        <v>0</v>
+      </c>
+      <c r="O283">
+        <v>0</v>
+      </c>
+      <c r="P283">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A284" s="5" t="s">
         <v>32</v>
       </c>
@@ -11396,8 +14806,20 @@
       <c r="L284" s="16" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="285" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M284">
+        <v>0</v>
+      </c>
+      <c r="N284">
+        <v>0</v>
+      </c>
+      <c r="O284">
+        <v>0</v>
+      </c>
+      <c r="P284">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A285" s="5" t="s">
         <v>32</v>
       </c>
@@ -11434,8 +14856,20 @@
       <c r="L285" s="16" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="286" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M285">
+        <v>0</v>
+      </c>
+      <c r="N285">
+        <v>0</v>
+      </c>
+      <c r="O285">
+        <v>0</v>
+      </c>
+      <c r="P285">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A286" s="5" t="s">
         <v>32</v>
       </c>
@@ -11472,8 +14906,20 @@
       <c r="L286" s="16" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="287" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M286">
+        <v>0</v>
+      </c>
+      <c r="N286">
+        <v>0</v>
+      </c>
+      <c r="O286">
+        <v>0</v>
+      </c>
+      <c r="P286">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>32</v>
       </c>
@@ -11510,8 +14956,20 @@
       <c r="L287" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="288" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M287">
+        <v>0</v>
+      </c>
+      <c r="N287">
+        <v>0</v>
+      </c>
+      <c r="O287">
+        <v>0</v>
+      </c>
+      <c r="P287">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>32</v>
       </c>
@@ -11548,8 +15006,20 @@
       <c r="L288" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="289" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M288">
+        <v>0</v>
+      </c>
+      <c r="N288">
+        <v>0</v>
+      </c>
+      <c r="O288">
+        <v>0</v>
+      </c>
+      <c r="P288">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>32</v>
       </c>
@@ -11586,8 +15056,20 @@
       <c r="L289" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="290" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M289">
+        <v>0</v>
+      </c>
+      <c r="N289">
+        <v>0</v>
+      </c>
+      <c r="O289">
+        <v>0</v>
+      </c>
+      <c r="P289">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A290" s="4" t="s">
         <v>33</v>
       </c>
@@ -11624,8 +15106,20 @@
       <c r="L290" s="15" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="291" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M290">
+        <v>0</v>
+      </c>
+      <c r="N290">
+        <v>0</v>
+      </c>
+      <c r="O290">
+        <v>0</v>
+      </c>
+      <c r="P290">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A291" s="4" t="s">
         <v>33</v>
       </c>
@@ -11662,8 +15156,20 @@
       <c r="L291" s="15" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="292" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M291">
+        <v>0</v>
+      </c>
+      <c r="N291">
+        <v>0</v>
+      </c>
+      <c r="O291">
+        <v>0</v>
+      </c>
+      <c r="P291">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A292" s="4" t="s">
         <v>33</v>
       </c>
@@ -11700,8 +15206,20 @@
       <c r="L292" s="15" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="293" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M292">
+        <v>0</v>
+      </c>
+      <c r="N292">
+        <v>0</v>
+      </c>
+      <c r="O292">
+        <v>0</v>
+      </c>
+      <c r="P292">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>33</v>
       </c>
@@ -11738,8 +15256,20 @@
       <c r="L293" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="294" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M293">
+        <v>0</v>
+      </c>
+      <c r="N293">
+        <v>0</v>
+      </c>
+      <c r="O293">
+        <v>0</v>
+      </c>
+      <c r="P293">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>33</v>
       </c>
@@ -11776,8 +15306,20 @@
       <c r="L294" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="295" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M294">
+        <v>0</v>
+      </c>
+      <c r="N294">
+        <v>0</v>
+      </c>
+      <c r="O294">
+        <v>0</v>
+      </c>
+      <c r="P294">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>33</v>
       </c>
@@ -11814,8 +15356,20 @@
       <c r="L295" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="296" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M295">
+        <v>0</v>
+      </c>
+      <c r="N295">
+        <v>0</v>
+      </c>
+      <c r="O295">
+        <v>0</v>
+      </c>
+      <c r="P295">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A296" s="5" t="s">
         <v>33</v>
       </c>
@@ -11852,8 +15406,20 @@
       <c r="L296" s="16" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="297" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M296">
+        <v>0</v>
+      </c>
+      <c r="N296">
+        <v>0</v>
+      </c>
+      <c r="O296">
+        <v>0</v>
+      </c>
+      <c r="P296">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A297" s="5" t="s">
         <v>33</v>
       </c>
@@ -11890,8 +15456,20 @@
       <c r="L297" s="16" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="298" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M297">
+        <v>0</v>
+      </c>
+      <c r="N297">
+        <v>0</v>
+      </c>
+      <c r="O297">
+        <v>0</v>
+      </c>
+      <c r="P297">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A298" s="5" t="s">
         <v>33</v>
       </c>
@@ -11928,8 +15506,20 @@
       <c r="L298" s="16" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="299" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M298">
+        <v>0</v>
+      </c>
+      <c r="N298">
+        <v>0</v>
+      </c>
+      <c r="O298">
+        <v>0</v>
+      </c>
+      <c r="P298">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>33</v>
       </c>
@@ -11966,8 +15556,20 @@
       <c r="L299" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="300" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M299">
+        <v>0</v>
+      </c>
+      <c r="N299">
+        <v>0</v>
+      </c>
+      <c r="O299">
+        <v>0</v>
+      </c>
+      <c r="P299">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>33</v>
       </c>
@@ -12004,8 +15606,20 @@
       <c r="L300" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="301" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M300">
+        <v>0</v>
+      </c>
+      <c r="N300">
+        <v>0</v>
+      </c>
+      <c r="O300">
+        <v>0</v>
+      </c>
+      <c r="P300">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>33</v>
       </c>
@@ -12042,8 +15656,20 @@
       <c r="L301" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="302" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M301">
+        <v>0</v>
+      </c>
+      <c r="N301">
+        <v>0</v>
+      </c>
+      <c r="O301">
+        <v>0</v>
+      </c>
+      <c r="P301">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A302" s="6" t="s">
         <v>34</v>
       </c>
@@ -12080,8 +15706,20 @@
       <c r="L302" s="17" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="303" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M302">
+        <v>0</v>
+      </c>
+      <c r="N302">
+        <v>0</v>
+      </c>
+      <c r="O302">
+        <v>0</v>
+      </c>
+      <c r="P302">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A303" s="6" t="s">
         <v>34</v>
       </c>
@@ -12118,8 +15756,20 @@
       <c r="L303" s="17" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="304" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M303">
+        <v>0</v>
+      </c>
+      <c r="N303">
+        <v>0</v>
+      </c>
+      <c r="O303">
+        <v>0</v>
+      </c>
+      <c r="P303">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A304" s="6" t="s">
         <v>34</v>
       </c>
@@ -12156,8 +15806,20 @@
       <c r="L304" s="17" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="305" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M304">
+        <v>0</v>
+      </c>
+      <c r="N304">
+        <v>0</v>
+      </c>
+      <c r="O304">
+        <v>0</v>
+      </c>
+      <c r="P304">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>34</v>
       </c>
@@ -12194,8 +15856,20 @@
       <c r="L305" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="306" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M305">
+        <v>0</v>
+      </c>
+      <c r="N305">
+        <v>0</v>
+      </c>
+      <c r="O305">
+        <v>0</v>
+      </c>
+      <c r="P305">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>34</v>
       </c>
@@ -12232,8 +15906,20 @@
       <c r="L306" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="307" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M306">
+        <v>0</v>
+      </c>
+      <c r="N306">
+        <v>0</v>
+      </c>
+      <c r="O306">
+        <v>0</v>
+      </c>
+      <c r="P306">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>34</v>
       </c>
@@ -12270,8 +15956,20 @@
       <c r="L307" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="308" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M307">
+        <v>0</v>
+      </c>
+      <c r="N307">
+        <v>0</v>
+      </c>
+      <c r="O307">
+        <v>0</v>
+      </c>
+      <c r="P307">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A308" s="7" t="s">
         <v>34</v>
       </c>
@@ -12308,8 +16006,20 @@
       <c r="L308" s="18" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="309" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M308">
+        <v>0</v>
+      </c>
+      <c r="N308">
+        <v>0</v>
+      </c>
+      <c r="O308">
+        <v>0</v>
+      </c>
+      <c r="P308">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A309" s="7" t="s">
         <v>34</v>
       </c>
@@ -12346,8 +16056,20 @@
       <c r="L309" s="18" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="310" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M309">
+        <v>0</v>
+      </c>
+      <c r="N309">
+        <v>0</v>
+      </c>
+      <c r="O309">
+        <v>0</v>
+      </c>
+      <c r="P309">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A310" s="7" t="s">
         <v>34</v>
       </c>
@@ -12384,8 +16106,20 @@
       <c r="L310" s="18" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="311" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M310">
+        <v>0</v>
+      </c>
+      <c r="N310">
+        <v>0</v>
+      </c>
+      <c r="O310">
+        <v>0</v>
+      </c>
+      <c r="P310">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>34</v>
       </c>
@@ -12422,8 +16156,20 @@
       <c r="L311" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="312" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M311">
+        <v>0</v>
+      </c>
+      <c r="N311">
+        <v>0</v>
+      </c>
+      <c r="O311">
+        <v>0</v>
+      </c>
+      <c r="P311">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>34</v>
       </c>
@@ -12460,8 +16206,20 @@
       <c r="L312" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="313" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M312">
+        <v>0</v>
+      </c>
+      <c r="N312">
+        <v>0</v>
+      </c>
+      <c r="O312">
+        <v>0</v>
+      </c>
+      <c r="P312">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>34</v>
       </c>
@@ -12498,8 +16256,20 @@
       <c r="L313" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="314" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M313">
+        <v>0</v>
+      </c>
+      <c r="N313">
+        <v>0</v>
+      </c>
+      <c r="O313">
+        <v>0</v>
+      </c>
+      <c r="P313">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A314" s="6" t="s">
         <v>35</v>
       </c>
@@ -12536,8 +16306,20 @@
       <c r="L314" s="17" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="315" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M314">
+        <v>0</v>
+      </c>
+      <c r="N314">
+        <v>0</v>
+      </c>
+      <c r="O314">
+        <v>0</v>
+      </c>
+      <c r="P314">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A315" s="6" t="s">
         <v>35</v>
       </c>
@@ -12574,8 +16356,20 @@
       <c r="L315" s="17" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="316" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M315">
+        <v>0</v>
+      </c>
+      <c r="N315">
+        <v>0</v>
+      </c>
+      <c r="O315">
+        <v>0</v>
+      </c>
+      <c r="P315">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A316" s="6" t="s">
         <v>35</v>
       </c>
@@ -12612,8 +16406,20 @@
       <c r="L316" s="17" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="317" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M316">
+        <v>0</v>
+      </c>
+      <c r="N316">
+        <v>0</v>
+      </c>
+      <c r="O316">
+        <v>0</v>
+      </c>
+      <c r="P316">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>35</v>
       </c>
@@ -12650,8 +16456,20 @@
       <c r="L317" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="318" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M317">
+        <v>0</v>
+      </c>
+      <c r="N317">
+        <v>0</v>
+      </c>
+      <c r="O317">
+        <v>0</v>
+      </c>
+      <c r="P317">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>35</v>
       </c>
@@ -12688,8 +16506,20 @@
       <c r="L318" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="319" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M318">
+        <v>0</v>
+      </c>
+      <c r="N318">
+        <v>0</v>
+      </c>
+      <c r="O318">
+        <v>0</v>
+      </c>
+      <c r="P318">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>35</v>
       </c>
@@ -12726,8 +16556,20 @@
       <c r="L319" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="320" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M319">
+        <v>0</v>
+      </c>
+      <c r="N319">
+        <v>0</v>
+      </c>
+      <c r="O319">
+        <v>0</v>
+      </c>
+      <c r="P319">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A320" s="7" t="s">
         <v>35</v>
       </c>
@@ -12764,8 +16606,20 @@
       <c r="L320" s="18" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="321" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M320">
+        <v>0</v>
+      </c>
+      <c r="N320">
+        <v>0</v>
+      </c>
+      <c r="O320">
+        <v>0</v>
+      </c>
+      <c r="P320">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A321" s="7" t="s">
         <v>35</v>
       </c>
@@ -12802,8 +16656,20 @@
       <c r="L321" s="18" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="322" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M321">
+        <v>0</v>
+      </c>
+      <c r="N321">
+        <v>0</v>
+      </c>
+      <c r="O321">
+        <v>0</v>
+      </c>
+      <c r="P321">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A322" s="7" t="s">
         <v>35</v>
       </c>
@@ -12840,8 +16706,20 @@
       <c r="L322" s="18" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="323" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M322">
+        <v>0</v>
+      </c>
+      <c r="N322">
+        <v>0</v>
+      </c>
+      <c r="O322">
+        <v>0</v>
+      </c>
+      <c r="P322">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>35</v>
       </c>
@@ -12878,8 +16756,20 @@
       <c r="L323" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="324" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M323">
+        <v>0</v>
+      </c>
+      <c r="N323">
+        <v>0</v>
+      </c>
+      <c r="O323">
+        <v>0</v>
+      </c>
+      <c r="P323">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>35</v>
       </c>
@@ -12916,8 +16806,20 @@
       <c r="L324" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="325" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M324">
+        <v>0</v>
+      </c>
+      <c r="N324">
+        <v>0</v>
+      </c>
+      <c r="O324">
+        <v>0</v>
+      </c>
+      <c r="P324">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>35</v>
       </c>
@@ -12954,8 +16856,20 @@
       <c r="L325" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="326" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M325">
+        <v>0</v>
+      </c>
+      <c r="N325">
+        <v>0</v>
+      </c>
+      <c r="O325">
+        <v>0</v>
+      </c>
+      <c r="P325">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A326" s="6" t="s">
         <v>36</v>
       </c>
@@ -12992,8 +16906,20 @@
       <c r="L326" s="17" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="327" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M326">
+        <v>0</v>
+      </c>
+      <c r="N326">
+        <v>0</v>
+      </c>
+      <c r="O326">
+        <v>0</v>
+      </c>
+      <c r="P326">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A327" s="6" t="s">
         <v>36</v>
       </c>
@@ -13030,8 +16956,20 @@
       <c r="L327" s="17" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="328" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M327">
+        <v>0</v>
+      </c>
+      <c r="N327">
+        <v>0</v>
+      </c>
+      <c r="O327">
+        <v>0</v>
+      </c>
+      <c r="P327">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A328" s="6" t="s">
         <v>36</v>
       </c>
@@ -13068,8 +17006,20 @@
       <c r="L328" s="17" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="329" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M328">
+        <v>0</v>
+      </c>
+      <c r="N328">
+        <v>0</v>
+      </c>
+      <c r="O328">
+        <v>0</v>
+      </c>
+      <c r="P328">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>36</v>
       </c>
@@ -13106,8 +17056,20 @@
       <c r="L329" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="330" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M329">
+        <v>0</v>
+      </c>
+      <c r="N329">
+        <v>0</v>
+      </c>
+      <c r="O329">
+        <v>0</v>
+      </c>
+      <c r="P329">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>36</v>
       </c>
@@ -13144,8 +17106,20 @@
       <c r="L330" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="331" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M330">
+        <v>0</v>
+      </c>
+      <c r="N330">
+        <v>0</v>
+      </c>
+      <c r="O330">
+        <v>0</v>
+      </c>
+      <c r="P330">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>36</v>
       </c>
@@ -13182,8 +17156,20 @@
       <c r="L331" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="332" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M331">
+        <v>0</v>
+      </c>
+      <c r="N331">
+        <v>0</v>
+      </c>
+      <c r="O331">
+        <v>0</v>
+      </c>
+      <c r="P331">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A332" s="7" t="s">
         <v>36</v>
       </c>
@@ -13220,8 +17206,20 @@
       <c r="L332" s="18" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="333" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M332">
+        <v>0</v>
+      </c>
+      <c r="N332">
+        <v>0</v>
+      </c>
+      <c r="O332">
+        <v>0</v>
+      </c>
+      <c r="P332">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A333" s="7" t="s">
         <v>36</v>
       </c>
@@ -13258,8 +17256,20 @@
       <c r="L333" s="18" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="334" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M333">
+        <v>0</v>
+      </c>
+      <c r="N333">
+        <v>0</v>
+      </c>
+      <c r="O333">
+        <v>0</v>
+      </c>
+      <c r="P333">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A334" s="7" t="s">
         <v>36</v>
       </c>
@@ -13296,8 +17306,20 @@
       <c r="L334" s="18" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="335" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M334">
+        <v>0</v>
+      </c>
+      <c r="N334">
+        <v>0</v>
+      </c>
+      <c r="O334">
+        <v>0</v>
+      </c>
+      <c r="P334">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>36</v>
       </c>
@@ -13334,8 +17356,20 @@
       <c r="L335" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="336" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M335">
+        <v>0</v>
+      </c>
+      <c r="N335">
+        <v>0</v>
+      </c>
+      <c r="O335">
+        <v>0</v>
+      </c>
+      <c r="P335">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>36</v>
       </c>
@@ -13372,8 +17406,20 @@
       <c r="L336" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="337" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M336">
+        <v>0</v>
+      </c>
+      <c r="N336">
+        <v>0</v>
+      </c>
+      <c r="O336">
+        <v>0</v>
+      </c>
+      <c r="P336">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>36</v>
       </c>
@@ -13410,8 +17456,20 @@
       <c r="L337" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="338" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M337">
+        <v>0</v>
+      </c>
+      <c r="N337">
+        <v>0</v>
+      </c>
+      <c r="O337">
+        <v>0</v>
+      </c>
+      <c r="P337">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A338" s="6" t="s">
         <v>37</v>
       </c>
@@ -13448,8 +17506,20 @@
       <c r="L338" s="17" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="339" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M338">
+        <v>0</v>
+      </c>
+      <c r="N338">
+        <v>0</v>
+      </c>
+      <c r="O338">
+        <v>0</v>
+      </c>
+      <c r="P338">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A339" s="6" t="s">
         <v>37</v>
       </c>
@@ -13486,8 +17556,20 @@
       <c r="L339" s="17" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="340" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M339">
+        <v>0</v>
+      </c>
+      <c r="N339">
+        <v>0</v>
+      </c>
+      <c r="O339">
+        <v>0</v>
+      </c>
+      <c r="P339">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A340" s="6" t="s">
         <v>37</v>
       </c>
@@ -13524,8 +17606,20 @@
       <c r="L340" s="17" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="341" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M340">
+        <v>0</v>
+      </c>
+      <c r="N340">
+        <v>0</v>
+      </c>
+      <c r="O340">
+        <v>0</v>
+      </c>
+      <c r="P340">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>37</v>
       </c>
@@ -13562,8 +17656,20 @@
       <c r="L341" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="342" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M341">
+        <v>0</v>
+      </c>
+      <c r="N341">
+        <v>0</v>
+      </c>
+      <c r="O341">
+        <v>0</v>
+      </c>
+      <c r="P341">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>37</v>
       </c>
@@ -13600,8 +17706,20 @@
       <c r="L342" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="343" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M342">
+        <v>0</v>
+      </c>
+      <c r="N342">
+        <v>0</v>
+      </c>
+      <c r="O342">
+        <v>0</v>
+      </c>
+      <c r="P342">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>37</v>
       </c>
@@ -13638,8 +17756,20 @@
       <c r="L343" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="344" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M343">
+        <v>0</v>
+      </c>
+      <c r="N343">
+        <v>0</v>
+      </c>
+      <c r="O343">
+        <v>0</v>
+      </c>
+      <c r="P343">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A344" s="7" t="s">
         <v>37</v>
       </c>
@@ -13676,8 +17806,20 @@
       <c r="L344" s="18" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="345" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M344">
+        <v>0</v>
+      </c>
+      <c r="N344">
+        <v>0</v>
+      </c>
+      <c r="O344">
+        <v>0</v>
+      </c>
+      <c r="P344">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A345" s="7" t="s">
         <v>37</v>
       </c>
@@ -13714,8 +17856,20 @@
       <c r="L345" s="18" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="346" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M345">
+        <v>0</v>
+      </c>
+      <c r="N345">
+        <v>0</v>
+      </c>
+      <c r="O345">
+        <v>0</v>
+      </c>
+      <c r="P345">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A346" s="7" t="s">
         <v>37</v>
       </c>
@@ -13752,8 +17906,20 @@
       <c r="L346" s="18" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="347" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M346">
+        <v>0</v>
+      </c>
+      <c r="N346">
+        <v>0</v>
+      </c>
+      <c r="O346">
+        <v>0</v>
+      </c>
+      <c r="P346">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>37</v>
       </c>
@@ -13790,8 +17956,20 @@
       <c r="L347" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="348" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M347">
+        <v>0</v>
+      </c>
+      <c r="N347">
+        <v>0</v>
+      </c>
+      <c r="O347">
+        <v>0</v>
+      </c>
+      <c r="P347">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>37</v>
       </c>
@@ -13828,8 +18006,20 @@
       <c r="L348" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="349" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M348">
+        <v>0</v>
+      </c>
+      <c r="N348">
+        <v>0</v>
+      </c>
+      <c r="O348">
+        <v>0</v>
+      </c>
+      <c r="P348">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>37</v>
       </c>
@@ -13866,8 +18056,20 @@
       <c r="L349" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="350" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M349">
+        <v>0</v>
+      </c>
+      <c r="N349">
+        <v>0</v>
+      </c>
+      <c r="O349">
+        <v>0</v>
+      </c>
+      <c r="P349">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A350" s="6" t="s">
         <v>38</v>
       </c>
@@ -13904,8 +18106,20 @@
       <c r="L350" s="17" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="351" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M350">
+        <v>0</v>
+      </c>
+      <c r="N350">
+        <v>0</v>
+      </c>
+      <c r="O350">
+        <v>0</v>
+      </c>
+      <c r="P350">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A351" s="6" t="s">
         <v>38</v>
       </c>
@@ -13942,8 +18156,20 @@
       <c r="L351" s="17" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="352" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M351">
+        <v>0</v>
+      </c>
+      <c r="N351">
+        <v>0</v>
+      </c>
+      <c r="O351">
+        <v>0</v>
+      </c>
+      <c r="P351">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A352" s="6" t="s">
         <v>38</v>
       </c>
@@ -13980,8 +18206,20 @@
       <c r="L352" s="17" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="353" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M352">
+        <v>0</v>
+      </c>
+      <c r="N352">
+        <v>0</v>
+      </c>
+      <c r="O352">
+        <v>0</v>
+      </c>
+      <c r="P352">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>38</v>
       </c>
@@ -14018,8 +18256,20 @@
       <c r="L353" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="354" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M353">
+        <v>0</v>
+      </c>
+      <c r="N353">
+        <v>0</v>
+      </c>
+      <c r="O353">
+        <v>0</v>
+      </c>
+      <c r="P353">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>38</v>
       </c>
@@ -14056,8 +18306,20 @@
       <c r="L354" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="355" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M354">
+        <v>0</v>
+      </c>
+      <c r="N354">
+        <v>0</v>
+      </c>
+      <c r="O354">
+        <v>0</v>
+      </c>
+      <c r="P354">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>38</v>
       </c>
@@ -14094,8 +18356,20 @@
       <c r="L355" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="356" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M355">
+        <v>0</v>
+      </c>
+      <c r="N355">
+        <v>0</v>
+      </c>
+      <c r="O355">
+        <v>0</v>
+      </c>
+      <c r="P355">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A356" s="7" t="s">
         <v>38</v>
       </c>
@@ -14132,8 +18406,20 @@
       <c r="L356" s="18" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="357" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M356">
+        <v>0</v>
+      </c>
+      <c r="N356">
+        <v>0</v>
+      </c>
+      <c r="O356">
+        <v>0</v>
+      </c>
+      <c r="P356">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A357" s="7" t="s">
         <v>38</v>
       </c>
@@ -14170,8 +18456,20 @@
       <c r="L357" s="18" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="358" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M357">
+        <v>0</v>
+      </c>
+      <c r="N357">
+        <v>0</v>
+      </c>
+      <c r="O357">
+        <v>0</v>
+      </c>
+      <c r="P357">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A358" s="7" t="s">
         <v>38</v>
       </c>
@@ -14208,8 +18506,20 @@
       <c r="L358" s="18" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="359" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M358">
+        <v>0</v>
+      </c>
+      <c r="N358">
+        <v>0</v>
+      </c>
+      <c r="O358">
+        <v>0</v>
+      </c>
+      <c r="P358">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>38</v>
       </c>
@@ -14246,8 +18556,20 @@
       <c r="L359" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="360" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M359">
+        <v>0</v>
+      </c>
+      <c r="N359">
+        <v>0</v>
+      </c>
+      <c r="O359">
+        <v>0</v>
+      </c>
+      <c r="P359">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>38</v>
       </c>
@@ -14284,8 +18606,20 @@
       <c r="L360" s="11" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="361" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M360">
+        <v>0</v>
+      </c>
+      <c r="N360">
+        <v>0</v>
+      </c>
+      <c r="O360">
+        <v>0</v>
+      </c>
+      <c r="P360">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>38</v>
       </c>
@@ -14321,6 +18655,18 @@
       </c>
       <c r="L361" s="11" t="s">
         <v>45</v>
+      </c>
+      <c r="M361">
+        <v>0</v>
+      </c>
+      <c r="N361">
+        <v>0</v>
+      </c>
+      <c r="O361">
+        <v>0</v>
+      </c>
+      <c r="P361">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
